--- a/3-up-and-running-with-linear-regression/mpg-regression.xlsx
+++ b/3-up-and-running-with-linear-regression/mpg-regression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-intermediate-stats\3-up-and-running-with-linear-regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB34E0C8-B30C-43BA-9596-E52E8D85E859}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340C344C-7B82-4D4F-B693-02384F36BDE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{0059BE41-D7BD-49CF-A6A3-546C812FE9FC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0059BE41-D7BD-49CF-A6A3-546C812FE9FC}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -1047,6 +1047,3291 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Relationship between</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> weight and acceleration</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mpg!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>acceleration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mpg!$C$2:$C$399</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="398"/>
+                <c:pt idx="0">
+                  <c:v>3504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3693</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3436</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3433</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3449</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4341</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4354</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4312</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4425</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3850</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3563</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3609</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3761</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3086</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2372</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2833</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2774</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2587</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1835</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2672</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2430</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2234</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2648</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4615</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4376</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4382</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4732</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2264</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2228</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2634</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3439</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3329</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3302</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3288</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4209</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4464</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4154</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4955</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4746</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5140</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2962</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2408</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3282</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3139</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2220</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2123</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2074</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2065</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1773</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1613</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1834</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1955</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2278</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2126</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2254</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2408</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2226</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4274</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4385</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4135</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4129</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3672</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4633</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4502</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4456</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4422</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2330</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3892</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4098</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4294</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4077</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2933</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2511</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2979</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2189</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2395</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2288</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2506</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2164</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3672</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3988</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4042</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3777</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4952</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4464</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4363</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4237</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4735</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4951</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3821</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3121</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3278</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2945</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3021</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2904</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4997</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4906</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4654</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4499</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2789</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2279</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2401</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2379</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2124</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2310</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2472</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2265</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4082</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4278</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1867</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2158</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2582</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2868</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3399</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2660</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2807</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3664</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3102</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2875</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2901</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3336</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2451</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1836</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2542</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3781</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3632</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3613</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>4141</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>4699</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>4457</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>4638</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>4257</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2219</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1649</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2125</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2108</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2246</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2489</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2391</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3264</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3459</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3432</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3158</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>4668</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>4440</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>4498</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>4657</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3907</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3897</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3730</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3785</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3039</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3221</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3169</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2171</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2639</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2914</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2592</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2702</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2223</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2545</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2984</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1937</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3211</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2694</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2957</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2945</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2671</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1795</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2464</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2220</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2572</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2255</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2202</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>4215</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>4190</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3962</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>4215</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>3233</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3353</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3012</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>3085</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2164</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1937</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1795</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>3651</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>3574</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>3645</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>3193</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1825</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2155</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2565</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>3940</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>3270</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2930</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>3820</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>4380</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>4055</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>3870</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>3755</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2155</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1825</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1945</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>3880</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>4060</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>4140</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>4295</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>3520</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>3425</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>3630</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>3525</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>4220</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>4165</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>4325</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>4335</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2740</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2265</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2755</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2051</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2075</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2190</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2815</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2720</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2070</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>3365</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>3735</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>3570</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>3535</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>3155</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2965</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2720</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>3430</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>3210</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>3380</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>3070</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>3620</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>3410</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>3425</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>3445</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>3205</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>4080</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2155</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2230</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2515</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2745</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2855</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2405</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2830</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>3140</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2795</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>3410</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2135</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2990</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2890</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>3265</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>3360</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>3725</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>3955</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>3830</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>4360</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>4054</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>3605</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>3940</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>1925</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1915</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2670</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>3530</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>3190</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>3420</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>2670</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>2595</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>2556</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>2144</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>2120</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>2678</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>2870</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>3003</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>3381</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>2188</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>2711</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>2542</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>2434</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>2265</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>2110</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>2110</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>2085</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>2335</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>1835</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>2145</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>1845</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>2910</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>2420</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>2905</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>2290</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>2490</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>2635</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>2620</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>2725</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>2385</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>1755</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>1875</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>2065</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>2215</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>2380</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>2190</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>2320</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>2210</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>2615</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>2635</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>3230</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>3160</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>2930</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>3415</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>3725</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>3060</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>3465</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>2605</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>2640</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>2395</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>2575</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>2525</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>2735</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>2865</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>3035</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>2125</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>2125</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>2205</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>2245</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>2945</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>3015</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>2585</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>2835</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>2665</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>2370</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>2790</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>2295</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>2625</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>2720</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mpg!$F$2:$F$399</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="398"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>21.7</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C529-48E9-89E4-7143BB1D9A5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="597449391"/>
+        <c:axId val="414882767"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="597449391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="414882767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="414882767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="597449391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114306</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114306</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82A558AA-523D-4B49-A546-0576CE7F50A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1348,7 +4633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477BF2E4-FC47-43A3-B33E-6D662FF1699E}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -1378,9 +4663,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336B9876-DD7C-406B-907E-239FB9E4782E}">
   <dimension ref="A1:I399"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12950,5 +16235,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/3-up-and-running-with-linear-regression/mpg-regression.xlsx
+++ b/3-up-and-running-with-linear-regression/mpg-regression.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-intermediate-stats\3-up-and-running-with-linear-regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-intermediate-stats\3-up-and-running-with-linear-regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340C344C-7B82-4D4F-B693-02384F36BDE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1081A60-DCF6-4C36-B291-E293B011E4A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0059BE41-D7BD-49CF-A6A3-546C812FE9FC}"/>
+    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="13373" activeTab="1" xr2:uid="{0059BE41-D7BD-49CF-A6A3-546C812FE9FC}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -1047,3291 +1047,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Relationship between</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> weight and acceleration</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>mpg!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>acceleration</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>mpg!$C$2:$C$399</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="398"/>
-                <c:pt idx="0">
-                  <c:v>3504</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3693</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3436</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3433</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3449</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4341</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4354</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4312</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4425</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3850</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3563</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3609</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3761</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3086</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2372</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2833</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2774</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2587</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2130</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1835</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2672</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2430</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2375</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2234</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2648</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4615</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4376</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4382</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4732</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2130</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2264</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2228</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2634</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3439</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3329</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3302</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3288</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4209</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4464</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4154</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4955</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4746</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>5140</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2962</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2408</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3282</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3139</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2220</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2123</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2074</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2065</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1773</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1613</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1834</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1955</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2278</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2126</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2254</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2408</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2226</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>4274</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>4385</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>4135</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>4129</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>3672</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>4633</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>4502</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>4456</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>4422</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2330</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>3892</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>4098</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>4294</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>4077</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2933</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2511</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2979</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2189</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2395</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2288</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2506</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2164</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>4100</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>3672</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>3988</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>4042</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>3777</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>4952</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>4464</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>4363</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>4237</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>4735</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>4951</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>3821</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>3121</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>3278</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2945</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>3021</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2904</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1950</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>4997</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>4906</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>4654</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>4499</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>2789</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>2279</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>2401</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>2379</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>2124</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>2310</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>2472</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>2265</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>4082</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>4278</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>1867</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>2158</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>2582</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>2868</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>3399</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>2660</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>2807</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>3664</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>3102</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>2875</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>2901</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>3336</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>1950</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>2451</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>1836</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>2542</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>3781</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>3632</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>3613</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>4141</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>4699</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>4457</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>4638</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>4257</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>2219</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>1963</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>2300</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>1649</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>2125</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>2108</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>2246</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>2489</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>2391</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>3264</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>3459</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>3432</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>3158</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>4668</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>4440</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>4498</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>4657</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>3907</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>3897</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>3730</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>3785</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>3039</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>3221</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>3169</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>2171</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>2639</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>2914</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>2592</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>2702</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>2223</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>2545</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>2984</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>1937</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>3211</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>2694</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>2957</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>2945</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>2671</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>1795</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>2464</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>2220</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>2572</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>2255</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>2202</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>4215</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>4190</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>3962</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>4215</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>3233</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>3353</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>3012</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>3085</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>2164</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>1937</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>1795</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>3651</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>3574</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>3645</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>3193</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>1825</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>2155</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>2565</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>3150</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>3940</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>3270</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>2930</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>3820</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>4380</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>4055</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>3870</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>3755</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>2155</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>1825</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>2300</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>1945</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>3880</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>4060</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>4140</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>4295</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>3520</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>3425</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>3630</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>3525</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>4220</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>4165</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>4325</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>4335</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>1940</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>2740</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>2265</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>2755</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>2051</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>2075</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>1985</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>2190</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>2815</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>2720</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>1985</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>1985</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>2070</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>3365</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>3735</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>3570</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>3535</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>3155</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>2965</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>2720</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>3430</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>3210</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>3380</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>3070</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>3620</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>3410</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>3425</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>3445</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>3205</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>4080</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>2155</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>2560</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>2300</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>2230</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>2515</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>2745</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>2855</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>2405</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>2830</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>3140</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>2795</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>3410</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>2135</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>3245</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>2990</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>2890</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>3265</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>3360</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>3840</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>3725</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>3955</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>3830</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>4360</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>4054</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>3605</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>3940</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>1925</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>1975</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>1915</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>2670</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>3530</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>3190</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>3420</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>2150</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>2130</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>2670</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>2595</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>2700</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>2556</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>2144</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>1968</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>2120</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>2678</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>2870</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>3003</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>3381</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>2188</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>2711</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>2542</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>2434</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>2265</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>2110</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>2800</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>2110</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>2085</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>2335</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>2950</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>3250</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>1850</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>1835</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>2145</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>1845</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>2910</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>2420</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>2905</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>2290</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>2490</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>2635</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>2620</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>2725</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>2385</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>1755</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>1875</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>1760</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>2065</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>1975</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>2050</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>1985</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>2215</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>2380</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>2190</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>2320</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>2210</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>2350</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>2615</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>2635</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>3230</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>3160</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>2900</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>2930</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>3415</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>3725</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>3060</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>3465</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>2605</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>2640</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>2395</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>2575</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>2525</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>2735</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>2865</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>3035</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>1980</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>1970</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>2125</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>2125</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>2160</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>2205</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>2245</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>1965</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>1965</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>2945</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>3015</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>2585</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>2835</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>2665</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>2370</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>2950</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>2790</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>2130</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>2295</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>2625</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>2720</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>mpg!$F$2:$F$399</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="398"/>
-                <c:pt idx="0">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>20.5</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>23.5</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>16.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>14.9</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>17.7</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>15.3</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>13.9</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>15.4</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>17.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>17.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>22.2</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>22.1</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>14.2</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>17.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>17.7</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>16.2</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>17.8</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>12.2</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>16.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>13.6</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>15.7</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>13.2</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>21.9</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>16.7</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>12.1</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>14.8</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>18.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>16.8</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>13.7</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>14.9</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>16.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>16.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>17.7</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>11.1</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>11.4</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>12.2</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>18.2</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>15.8</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>15.9</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>16.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>14.1</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>21.5</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>19.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>18.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>16.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>13.2</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>19.2</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>18.2</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>15.8</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>15.4</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>17.2</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>17.2</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>15.8</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>16.7</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>18.7</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>15.1</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>13.2</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>13.4</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>13.7</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>14.2</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>14.7</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>14.8</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>16.7</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>17.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>14.9</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>15.9</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>13.6</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>15.7</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>15.8</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>14.9</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>16.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>15.4</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>18.2</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>17.3</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>18.2</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>16.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>15.4</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>13.4</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>13.2</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>15.2</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>14.9</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>14.3</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>15.2</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>20.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>17.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>24.8</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>22.2</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>13.2</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>14.9</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>19.2</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>14.7</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>11.3</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>12.9</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>13.2</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>14.7</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>18.8</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>16.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>18.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>20.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>18.7</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>15.8</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>15.2</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>17.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>19.2</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>21.7</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>23.7</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>19.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>21.8</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>17.3</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>15.3</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>11.4</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>15.1</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>14.3</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>15.7</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>16.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>12.6</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>12.9</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>16.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>16.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>16.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>17.8</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>19.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>17.3</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>14.9</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>16.2</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>20.7</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>14.2</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>15.8</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>16.8</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>14.8</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>18.3</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>20.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>19.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>12.6</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>15.8</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>17.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>16.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>19.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>18.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>16.2</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>16.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>20.5</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>15.3</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>18.2</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>17.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>14.7</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>17.3</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>16.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>15.7</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>16.2</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>16.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>14.7</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>13.9</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>17.3</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>15.6</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>24.6</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>11.6</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>18.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>19.399999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C529-48E9-89E4-7143BB1D9A5D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="597449391"/>
-        <c:axId val="414882767"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="597449391"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="414882767"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="414882767"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="597449391"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114306</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114306</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82A558AA-523D-4B49-A546-0576CE7F50A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4633,23 +1348,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477BF2E4-FC47-43A3-B33E-6D662FF1699E}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>312</v>
       </c>
@@ -4663,24 +1378,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336B9876-DD7C-406B-907E-239FB9E4782E}">
   <dimension ref="A1:I399"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1171875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.87890625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1171875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.87890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>302</v>
       </c>
@@ -4709,7 +1424,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>8</v>
       </c>
@@ -4738,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>8</v>
       </c>
@@ -4767,7 +1482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>8</v>
       </c>
@@ -4796,7 +1511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>8</v>
       </c>
@@ -4825,7 +1540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>8</v>
       </c>
@@ -4854,7 +1569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>8</v>
       </c>
@@ -4883,7 +1598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>8</v>
       </c>
@@ -4912,7 +1627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4941,7 +1656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4970,7 +1685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>8</v>
       </c>
@@ -4999,7 +1714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>8</v>
       </c>
@@ -5028,7 +1743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>8</v>
       </c>
@@ -5057,7 +1772,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>8</v>
       </c>
@@ -5086,7 +1801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>8</v>
       </c>
@@ -5115,7 +1830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>4</v>
       </c>
@@ -5144,7 +1859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>6</v>
       </c>
@@ -5173,7 +1888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>6</v>
       </c>
@@ -5202,7 +1917,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>6</v>
       </c>
@@ -5231,7 +1946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>4</v>
       </c>
@@ -5260,7 +1975,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>4</v>
       </c>
@@ -5289,7 +2004,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>4</v>
       </c>
@@ -5318,7 +2033,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>4</v>
       </c>
@@ -5347,7 +2062,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>4</v>
       </c>
@@ -5376,7 +2091,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>4</v>
       </c>
@@ -5405,7 +2120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>6</v>
       </c>
@@ -5434,7 +2149,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>8</v>
       </c>
@@ -5463,7 +2178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>8</v>
       </c>
@@ -5492,7 +2207,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>8</v>
       </c>
@@ -5521,7 +2236,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>8</v>
       </c>
@@ -5550,7 +2265,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>4</v>
       </c>
@@ -5579,7 +2294,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>4</v>
       </c>
@@ -5608,7 +2323,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>4</v>
       </c>
@@ -5637,7 +2352,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>4</v>
       </c>
@@ -5663,7 +2378,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>6</v>
       </c>
@@ -5692,7 +2407,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>6</v>
       </c>
@@ -5721,7 +2436,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>6</v>
       </c>
@@ -5750,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>6</v>
       </c>
@@ -5779,7 +2494,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>6</v>
       </c>
@@ -5808,7 +2523,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>8</v>
       </c>
@@ -5837,7 +2552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>8</v>
       </c>
@@ -5866,7 +2581,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>8</v>
       </c>
@@ -5895,7 +2610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>8</v>
       </c>
@@ -5924,7 +2639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>8</v>
       </c>
@@ -5953,7 +2668,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>8</v>
       </c>
@@ -5982,7 +2697,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>8</v>
       </c>
@@ -6011,7 +2726,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>6</v>
       </c>
@@ -6040,7 +2755,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>4</v>
       </c>
@@ -6069,7 +2784,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>6</v>
       </c>
@@ -6098,7 +2813,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>6</v>
       </c>
@@ -6127,7 +2842,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>4</v>
       </c>
@@ -6156,7 +2871,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>4</v>
       </c>
@@ -6185,7 +2900,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>4</v>
       </c>
@@ -6214,7 +2929,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>4</v>
       </c>
@@ -6243,7 +2958,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>4</v>
       </c>
@@ -6272,7 +2987,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>4</v>
       </c>
@@ -6301,7 +3016,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>4</v>
       </c>
@@ -6330,7 +3045,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>4</v>
       </c>
@@ -6359,7 +3074,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>4</v>
       </c>
@@ -6388,7 +3103,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>4</v>
       </c>
@@ -6417,7 +3132,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>4</v>
       </c>
@@ -6446,7 +3161,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>4</v>
       </c>
@@ -6475,7 +3190,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>4</v>
       </c>
@@ -6504,7 +3219,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>8</v>
       </c>
@@ -6533,7 +3248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>8</v>
       </c>
@@ -6562,7 +3277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A66">
         <v>8</v>
       </c>
@@ -6591,7 +3306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A67">
         <v>8</v>
       </c>
@@ -6620,7 +3335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A68">
         <v>8</v>
       </c>
@@ -6649,7 +3364,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A69">
         <v>8</v>
       </c>
@@ -6678,7 +3393,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A70">
         <v>8</v>
       </c>
@@ -6707,7 +3422,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A71">
         <v>8</v>
       </c>
@@ -6736,7 +3451,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A72">
         <v>8</v>
       </c>
@@ -6765,7 +3480,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A73">
         <v>3</v>
       </c>
@@ -6794,7 +3509,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A74">
         <v>8</v>
       </c>
@@ -6823,7 +3538,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A75">
         <v>8</v>
       </c>
@@ -6852,7 +3567,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A76">
         <v>8</v>
       </c>
@@ -6881,7 +3596,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A77">
         <v>8</v>
       </c>
@@ -6910,7 +3625,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A78">
         <v>4</v>
       </c>
@@ -6939,7 +3654,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A79">
         <v>4</v>
       </c>
@@ -6968,7 +3683,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A80">
         <v>4</v>
       </c>
@@ -6997,7 +3712,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A81">
         <v>4</v>
       </c>
@@ -7026,7 +3741,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A82">
         <v>4</v>
       </c>
@@ -7055,7 +3770,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A83">
         <v>4</v>
       </c>
@@ -7084,7 +3799,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A84">
         <v>4</v>
       </c>
@@ -7113,7 +3828,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A85">
         <v>4</v>
       </c>
@@ -7142,7 +3857,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A86">
         <v>4</v>
       </c>
@@ -7171,7 +3886,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A87">
         <v>8</v>
       </c>
@@ -7200,7 +3915,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A88">
         <v>8</v>
       </c>
@@ -7229,7 +3944,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A89">
         <v>8</v>
       </c>
@@ -7258,7 +3973,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A90">
         <v>8</v>
       </c>
@@ -7287,7 +4002,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A91">
         <v>8</v>
       </c>
@@ -7316,7 +4031,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A92">
         <v>8</v>
       </c>
@@ -7345,7 +4060,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A93">
         <v>8</v>
       </c>
@@ -7374,7 +4089,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A94">
         <v>8</v>
       </c>
@@ -7403,7 +4118,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A95">
         <v>8</v>
       </c>
@@ -7432,7 +4147,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A96">
         <v>8</v>
       </c>
@@ -7461,7 +4176,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A97">
         <v>8</v>
       </c>
@@ -7490,7 +4205,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A98">
         <v>8</v>
       </c>
@@ -7519,7 +4234,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A99">
         <v>6</v>
       </c>
@@ -7548,7 +4263,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A100">
         <v>6</v>
       </c>
@@ -7577,7 +4292,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A101">
         <v>6</v>
       </c>
@@ -7606,7 +4321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A102">
         <v>6</v>
       </c>
@@ -7635,7 +4350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A103">
         <v>6</v>
       </c>
@@ -7664,7 +4379,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A104">
         <v>4</v>
       </c>
@@ -7693,7 +4408,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A105">
         <v>8</v>
       </c>
@@ -7722,7 +4437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A106">
         <v>8</v>
       </c>
@@ -7751,7 +4466,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A107">
         <v>8</v>
       </c>
@@ -7780,7 +4495,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A108">
         <v>8</v>
       </c>
@@ -7809,7 +4524,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A109">
         <v>6</v>
       </c>
@@ -7838,7 +4553,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A110">
         <v>4</v>
       </c>
@@ -7867,7 +4582,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A111">
         <v>4</v>
       </c>
@@ -7896,7 +4611,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A112">
         <v>4</v>
       </c>
@@ -7925,7 +4640,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A113">
         <v>3</v>
       </c>
@@ -7954,7 +4669,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A114">
         <v>4</v>
       </c>
@@ -7983,7 +4698,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A115">
         <v>6</v>
       </c>
@@ -8012,7 +4727,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A116">
         <v>4</v>
       </c>
@@ -8041,7 +4756,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A117">
         <v>8</v>
       </c>
@@ -8070,7 +4785,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A118">
         <v>8</v>
       </c>
@@ -8099,7 +4814,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A119">
         <v>4</v>
       </c>
@@ -8128,7 +4843,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A120">
         <v>4</v>
       </c>
@@ -8157,7 +4872,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A121">
         <v>4</v>
       </c>
@@ -8186,7 +4901,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A122">
         <v>4</v>
       </c>
@@ -8215,7 +4930,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A123">
         <v>8</v>
       </c>
@@ -8244,7 +4959,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A124">
         <v>4</v>
       </c>
@@ -8273,7 +4988,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A125">
         <v>6</v>
       </c>
@@ -8302,7 +5017,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A126">
         <v>8</v>
       </c>
@@ -8331,7 +5046,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A127">
         <v>6</v>
       </c>
@@ -8360,7 +5075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A128">
         <v>6</v>
       </c>
@@ -8386,7 +5101,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A129">
         <v>6</v>
       </c>
@@ -8415,7 +5130,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A130">
         <v>6</v>
       </c>
@@ -8444,7 +5159,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A131">
         <v>4</v>
       </c>
@@ -8473,7 +5188,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A132">
         <v>4</v>
       </c>
@@ -8502,7 +5217,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A133">
         <v>4</v>
       </c>
@@ -8531,7 +5246,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A134">
         <v>4</v>
       </c>
@@ -8560,7 +5275,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A135">
         <v>6</v>
       </c>
@@ -8589,7 +5304,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A136">
         <v>6</v>
       </c>
@@ -8618,7 +5333,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A137">
         <v>6</v>
       </c>
@@ -8647,7 +5362,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A138">
         <v>8</v>
       </c>
@@ -8676,7 +5391,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A139">
         <v>8</v>
       </c>
@@ -8705,7 +5420,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A140">
         <v>8</v>
       </c>
@@ -8734,7 +5449,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A141">
         <v>8</v>
       </c>
@@ -8763,7 +5478,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A142">
         <v>8</v>
       </c>
@@ -8792,7 +5507,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A143">
         <v>4</v>
       </c>
@@ -8821,7 +5536,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A144">
         <v>4</v>
       </c>
@@ -8850,7 +5565,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A145">
         <v>4</v>
       </c>
@@ -8879,7 +5594,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A146">
         <v>4</v>
       </c>
@@ -8908,7 +5623,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A147">
         <v>4</v>
       </c>
@@ -8937,7 +5652,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A148">
         <v>4</v>
       </c>
@@ -8966,7 +5681,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A149">
         <v>4</v>
       </c>
@@ -8995,7 +5710,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A150">
         <v>4</v>
       </c>
@@ -9024,7 +5739,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A151">
         <v>4</v>
       </c>
@@ -9053,7 +5768,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A152">
         <v>4</v>
       </c>
@@ -9082,7 +5797,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A153">
         <v>4</v>
       </c>
@@ -9111,7 +5826,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A154">
         <v>6</v>
       </c>
@@ -9140,7 +5855,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A155">
         <v>6</v>
       </c>
@@ -9169,7 +5884,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A156">
         <v>6</v>
       </c>
@@ -9198,7 +5913,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A157">
         <v>6</v>
       </c>
@@ -9227,7 +5942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A158">
         <v>8</v>
       </c>
@@ -9256,7 +5971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A159">
         <v>8</v>
       </c>
@@ -9285,7 +6000,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A160">
         <v>8</v>
       </c>
@@ -9314,7 +6029,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A161">
         <v>8</v>
       </c>
@@ -9343,7 +6058,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A162">
         <v>6</v>
       </c>
@@ -9372,7 +6087,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A163">
         <v>6</v>
       </c>
@@ -9401,7 +6116,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A164">
         <v>6</v>
       </c>
@@ -9430,7 +6145,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A165">
         <v>6</v>
       </c>
@@ -9459,7 +6174,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A166">
         <v>6</v>
       </c>
@@ -9488,7 +6203,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A167">
         <v>8</v>
       </c>
@@ -9517,7 +6232,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A168">
         <v>8</v>
       </c>
@@ -9546,7 +6261,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A169">
         <v>4</v>
       </c>
@@ -9575,7 +6290,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A170">
         <v>4</v>
       </c>
@@ -9604,7 +6319,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A171">
         <v>6</v>
       </c>
@@ -9633,7 +6348,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A172">
         <v>4</v>
       </c>
@@ -9662,7 +6377,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A173">
         <v>4</v>
       </c>
@@ -9691,7 +6406,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A174">
         <v>4</v>
       </c>
@@ -9720,7 +6435,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A175">
         <v>4</v>
       </c>
@@ -9749,7 +6464,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A176">
         <v>6</v>
       </c>
@@ -9778,7 +6493,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A177">
         <v>4</v>
       </c>
@@ -9807,7 +6522,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A178">
         <v>6</v>
       </c>
@@ -9836,7 +6551,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A179">
         <v>4</v>
       </c>
@@ -9865,7 +6580,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A180">
         <v>4</v>
       </c>
@@ -9894,7 +6609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A181">
         <v>4</v>
       </c>
@@ -9923,7 +6638,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A182">
         <v>4</v>
       </c>
@@ -9952,7 +6667,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A183">
         <v>4</v>
       </c>
@@ -9981,7 +6696,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A184">
         <v>4</v>
       </c>
@@ -10010,7 +6725,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A185">
         <v>4</v>
       </c>
@@ -10039,7 +6754,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A186">
         <v>4</v>
       </c>
@@ -10068,7 +6783,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A187">
         <v>4</v>
       </c>
@@ -10097,7 +6812,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A188">
         <v>4</v>
       </c>
@@ -10126,7 +6841,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A189">
         <v>8</v>
       </c>
@@ -10155,7 +6870,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A190">
         <v>8</v>
       </c>
@@ -10184,7 +6899,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A191">
         <v>8</v>
       </c>
@@ -10213,7 +6928,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A192">
         <v>8</v>
       </c>
@@ -10242,7 +6957,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A193">
         <v>6</v>
       </c>
@@ -10271,7 +6986,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A194">
         <v>6</v>
       </c>
@@ -10300,7 +7015,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A195">
         <v>6</v>
       </c>
@@ -10329,7 +7044,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A196">
         <v>6</v>
       </c>
@@ -10358,7 +7073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A197">
         <v>4</v>
       </c>
@@ -10387,7 +7102,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A198">
         <v>4</v>
       </c>
@@ -10416,7 +7131,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A199">
         <v>4</v>
       </c>
@@ -10445,7 +7160,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A200">
         <v>4</v>
       </c>
@@ -10474,7 +7189,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A201">
         <v>6</v>
       </c>
@@ -10503,7 +7218,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A202">
         <v>6</v>
       </c>
@@ -10532,7 +7247,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A203">
         <v>6</v>
       </c>
@@ -10561,7 +7276,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A204">
         <v>6</v>
       </c>
@@ -10590,7 +7305,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A205">
         <v>4</v>
       </c>
@@ -10619,7 +7334,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A206">
         <v>4</v>
       </c>
@@ -10648,7 +7363,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A207">
         <v>4</v>
       </c>
@@ -10677,7 +7392,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A208">
         <v>4</v>
       </c>
@@ -10706,7 +7421,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A209">
         <v>4</v>
       </c>
@@ -10735,7 +7450,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A210">
         <v>8</v>
       </c>
@@ -10764,7 +7479,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A211">
         <v>4</v>
       </c>
@@ -10793,7 +7508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A212">
         <v>6</v>
       </c>
@@ -10822,7 +7537,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A213">
         <v>6</v>
       </c>
@@ -10851,7 +7566,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A214">
         <v>8</v>
       </c>
@@ -10880,7 +7595,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A215">
         <v>8</v>
       </c>
@@ -10909,7 +7624,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A216">
         <v>8</v>
       </c>
@@ -10938,7 +7653,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A217">
         <v>8</v>
       </c>
@@ -10967,7 +7682,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A218">
         <v>4</v>
       </c>
@@ -10996,7 +7711,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A219">
         <v>4</v>
       </c>
@@ -11025,7 +7740,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A220">
         <v>4</v>
       </c>
@@ -11054,7 +7769,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A221">
         <v>4</v>
       </c>
@@ -11083,7 +7798,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A222">
         <v>4</v>
       </c>
@@ -11112,7 +7827,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A223">
         <v>8</v>
       </c>
@@ -11141,7 +7856,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A224">
         <v>8</v>
       </c>
@@ -11170,7 +7885,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A225">
         <v>8</v>
       </c>
@@ -11199,7 +7914,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A226">
         <v>8</v>
       </c>
@@ -11228,7 +7943,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A227">
         <v>6</v>
       </c>
@@ -11257,7 +7972,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A228">
         <v>6</v>
       </c>
@@ -11286,7 +8001,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A229">
         <v>6</v>
       </c>
@@ -11315,7 +8030,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A230">
         <v>6</v>
       </c>
@@ -11344,7 +8059,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A231">
         <v>8</v>
       </c>
@@ -11373,7 +8088,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A232">
         <v>8</v>
       </c>
@@ -11402,7 +8117,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A233">
         <v>8</v>
       </c>
@@ -11431,7 +8146,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A234">
         <v>8</v>
       </c>
@@ -11460,7 +8175,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A235">
         <v>4</v>
       </c>
@@ -11489,7 +8204,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A236">
         <v>4</v>
       </c>
@@ -11518,7 +8233,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A237">
         <v>4</v>
       </c>
@@ -11547,7 +8262,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A238">
         <v>4</v>
       </c>
@@ -11576,7 +8291,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A239">
         <v>4</v>
       </c>
@@ -11605,7 +8320,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A240">
         <v>4</v>
       </c>
@@ -11634,7 +8349,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A241">
         <v>4</v>
       </c>
@@ -11663,7 +8378,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A242">
         <v>4</v>
       </c>
@@ -11692,7 +8407,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A243">
         <v>6</v>
       </c>
@@ -11721,7 +8436,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A244">
         <v>4</v>
       </c>
@@ -11750,7 +8465,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A245">
         <v>3</v>
       </c>
@@ -11779,7 +8494,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A246">
         <v>4</v>
       </c>
@@ -11808,7 +8523,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A247">
         <v>4</v>
       </c>
@@ -11837,7 +8552,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A248">
         <v>4</v>
       </c>
@@ -11866,7 +8581,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A249">
         <v>4</v>
       </c>
@@ -11895,7 +8610,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A250">
         <v>4</v>
       </c>
@@ -11924,7 +8639,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A251">
         <v>8</v>
       </c>
@@ -11953,7 +8668,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A252">
         <v>8</v>
       </c>
@@ -11982,7 +8697,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A253">
         <v>8</v>
       </c>
@@ -12011,7 +8726,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A254">
         <v>6</v>
       </c>
@@ -12040,7 +8755,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A255">
         <v>6</v>
       </c>
@@ -12069,7 +8784,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A256">
         <v>6</v>
       </c>
@@ -12098,7 +8813,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A257">
         <v>4</v>
       </c>
@@ -12127,7 +8842,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A258">
         <v>6</v>
       </c>
@@ -12156,7 +8871,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A259">
         <v>6</v>
       </c>
@@ -12185,7 +8900,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A260">
         <v>6</v>
       </c>
@@ -12214,7 +8929,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A261">
         <v>6</v>
       </c>
@@ -12243,7 +8958,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A262">
         <v>6</v>
       </c>
@@ -12272,7 +8987,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A263">
         <v>6</v>
       </c>
@@ -12301,7 +9016,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A264">
         <v>8</v>
       </c>
@@ -12330,7 +9045,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A265">
         <v>6</v>
       </c>
@@ -12359,7 +9074,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A266">
         <v>8</v>
       </c>
@@ -12388,7 +9103,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A267">
         <v>8</v>
       </c>
@@ -12417,7 +9132,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A268">
         <v>4</v>
       </c>
@@ -12446,7 +9161,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A269">
         <v>4</v>
       </c>
@@ -12475,7 +9190,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A270">
         <v>4</v>
       </c>
@@ -12504,7 +9219,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A271">
         <v>4</v>
       </c>
@@ -12533,7 +9248,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A272">
         <v>4</v>
       </c>
@@ -12562,7 +9277,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A273">
         <v>4</v>
       </c>
@@ -12591,7 +9306,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A274">
         <v>4</v>
       </c>
@@ -12620,7 +9335,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A275">
         <v>4</v>
       </c>
@@ -12649,7 +9364,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A276">
         <v>5</v>
       </c>
@@ -12678,7 +9393,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A277">
         <v>6</v>
       </c>
@@ -12707,7 +9422,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A278">
         <v>4</v>
       </c>
@@ -12736,7 +9451,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A279">
         <v>6</v>
       </c>
@@ -12765,7 +9480,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A280">
         <v>4</v>
       </c>
@@ -12794,7 +9509,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A281">
         <v>4</v>
       </c>
@@ -12823,7 +9538,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A282">
         <v>6</v>
       </c>
@@ -12852,7 +9567,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A283">
         <v>6</v>
       </c>
@@ -12881,7 +9596,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A284">
         <v>4</v>
       </c>
@@ -12910,7 +9625,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A285">
         <v>6</v>
       </c>
@@ -12939,7 +9654,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A286">
         <v>6</v>
       </c>
@@ -12968,7 +9683,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A287">
         <v>8</v>
       </c>
@@ -12997,7 +9712,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A288">
         <v>8</v>
       </c>
@@ -13026,7 +9741,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A289">
         <v>8</v>
       </c>
@@ -13055,7 +9770,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A290">
         <v>8</v>
       </c>
@@ -13084,7 +9799,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A291">
         <v>8</v>
       </c>
@@ -13113,7 +9828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A292">
         <v>8</v>
       </c>
@@ -13142,7 +9857,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A293">
         <v>8</v>
       </c>
@@ -13171,7 +9886,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A294">
         <v>8</v>
       </c>
@@ -13200,7 +9915,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A295">
         <v>4</v>
       </c>
@@ -13229,7 +9944,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A296">
         <v>4</v>
       </c>
@@ -13258,7 +9973,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A297">
         <v>4</v>
       </c>
@@ -13287,7 +10002,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A298">
         <v>4</v>
       </c>
@@ -13316,7 +10031,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A299">
         <v>5</v>
       </c>
@@ -13345,7 +10060,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A300">
         <v>8</v>
       </c>
@@ -13374,7 +10089,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A301">
         <v>4</v>
       </c>
@@ -13403,7 +10118,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A302">
         <v>8</v>
       </c>
@@ -13432,7 +10147,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A303">
         <v>4</v>
       </c>
@@ -13461,7 +10176,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A304">
         <v>4</v>
       </c>
@@ -13490,7 +10205,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A305">
         <v>4</v>
       </c>
@@ -13519,7 +10234,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A306">
         <v>4</v>
       </c>
@@ -13548,7 +10263,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A307">
         <v>4</v>
       </c>
@@ -13577,7 +10292,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A308">
         <v>6</v>
       </c>
@@ -13606,7 +10321,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A309">
         <v>6</v>
       </c>
@@ -13635,7 +10350,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A310">
         <v>4</v>
       </c>
@@ -13664,7 +10379,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A311">
         <v>4</v>
       </c>
@@ -13693,7 +10408,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A312">
         <v>4</v>
       </c>
@@ -13722,7 +10437,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A313">
         <v>4</v>
       </c>
@@ -13751,7 +10466,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A314">
         <v>4</v>
       </c>
@@ -13780,7 +10495,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A315">
         <v>4</v>
       </c>
@@ -13809,7 +10524,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A316">
         <v>4</v>
       </c>
@@ -13838,7 +10553,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A317">
         <v>4</v>
       </c>
@@ -13867,7 +10582,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A318">
         <v>6</v>
       </c>
@@ -13896,7 +10611,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A319">
         <v>4</v>
       </c>
@@ -13925,7 +10640,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A320">
         <v>4</v>
       </c>
@@ -13954,7 +10669,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A321">
         <v>4</v>
       </c>
@@ -13983,7 +10698,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A322">
         <v>4</v>
       </c>
@@ -14012,7 +10727,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A323">
         <v>4</v>
       </c>
@@ -14041,7 +10756,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A324">
         <v>4</v>
       </c>
@@ -14070,7 +10785,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A325">
         <v>4</v>
       </c>
@@ -14099,7 +10814,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A326">
         <v>4</v>
       </c>
@@ -14128,7 +10843,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A327">
         <v>4</v>
       </c>
@@ -14157,7 +10872,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A328">
         <v>4</v>
       </c>
@@ -14186,7 +10901,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A329">
         <v>5</v>
       </c>
@@ -14215,7 +10930,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A330">
         <v>4</v>
       </c>
@@ -14244,7 +10959,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A331">
         <v>4</v>
       </c>
@@ -14273,7 +10988,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A332">
         <v>4</v>
       </c>
@@ -14299,7 +11014,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A333">
         <v>4</v>
       </c>
@@ -14328,7 +11043,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A334">
         <v>4</v>
       </c>
@@ -14357,7 +11072,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A335">
         <v>6</v>
       </c>
@@ -14386,7 +11101,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A336">
         <v>3</v>
       </c>
@@ -14415,7 +11130,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A337">
         <v>4</v>
       </c>
@@ -14444,7 +11159,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A338">
         <v>4</v>
       </c>
@@ -14470,7 +11185,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A339">
         <v>4</v>
       </c>
@@ -14499,7 +11214,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A340">
         <v>4</v>
       </c>
@@ -14528,7 +11243,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A341">
         <v>4</v>
       </c>
@@ -14557,7 +11272,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A342">
         <v>4</v>
       </c>
@@ -14586,7 +11301,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A343">
         <v>6</v>
       </c>
@@ -14615,7 +11330,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A344">
         <v>4</v>
       </c>
@@ -14644,7 +11359,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A345">
         <v>4</v>
       </c>
@@ -14673,7 +11388,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A346">
         <v>4</v>
       </c>
@@ -14702,7 +11417,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A347">
         <v>4</v>
       </c>
@@ -14731,7 +11446,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A348">
         <v>4</v>
       </c>
@@ -14760,7 +11475,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A349">
         <v>4</v>
       </c>
@@ -14789,7 +11504,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A350">
         <v>4</v>
       </c>
@@ -14818,7 +11533,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A351">
         <v>4</v>
       </c>
@@ -14847,7 +11562,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A352">
         <v>4</v>
       </c>
@@ -14876,7 +11591,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A353">
         <v>4</v>
       </c>
@@ -14905,7 +11620,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A354">
         <v>4</v>
       </c>
@@ -14934,7 +11649,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A355">
         <v>4</v>
       </c>
@@ -14963,7 +11678,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A356">
         <v>4</v>
       </c>
@@ -14989,7 +11704,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A357">
         <v>4</v>
       </c>
@@ -15018,7 +11733,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A358">
         <v>4</v>
       </c>
@@ -15047,7 +11762,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A359">
         <v>4</v>
       </c>
@@ -15076,7 +11791,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A360">
         <v>4</v>
       </c>
@@ -15105,7 +11820,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A361">
         <v>4</v>
       </c>
@@ -15134,7 +11849,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A362">
         <v>6</v>
       </c>
@@ -15163,7 +11878,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A363">
         <v>6</v>
       </c>
@@ -15192,7 +11907,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A364">
         <v>6</v>
       </c>
@@ -15221,7 +11936,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A365">
         <v>6</v>
       </c>
@@ -15250,7 +11965,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A366">
         <v>8</v>
       </c>
@@ -15279,7 +11994,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A367">
         <v>6</v>
       </c>
@@ -15308,7 +12023,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A368">
         <v>6</v>
       </c>
@@ -15337,7 +12052,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A369">
         <v>4</v>
       </c>
@@ -15366,7 +12081,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A370">
         <v>4</v>
       </c>
@@ -15395,7 +12110,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A371">
         <v>4</v>
       </c>
@@ -15424,7 +12139,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A372">
         <v>4</v>
       </c>
@@ -15453,7 +12168,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A373">
         <v>4</v>
       </c>
@@ -15482,7 +12197,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A374">
         <v>4</v>
       </c>
@@ -15511,7 +12226,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A375">
         <v>4</v>
       </c>
@@ -15540,7 +12255,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A376">
         <v>4</v>
       </c>
@@ -15566,7 +12281,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A377">
         <v>4</v>
       </c>
@@ -15595,7 +12310,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A378">
         <v>4</v>
       </c>
@@ -15624,7 +12339,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A379">
         <v>4</v>
       </c>
@@ -15653,7 +12368,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A380">
         <v>4</v>
       </c>
@@ -15682,7 +12397,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A381">
         <v>4</v>
       </c>
@@ -15711,7 +12426,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A382">
         <v>4</v>
       </c>
@@ -15740,7 +12455,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A383">
         <v>4</v>
       </c>
@@ -15769,7 +12484,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A384">
         <v>4</v>
       </c>
@@ -15798,7 +12513,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A385">
         <v>4</v>
       </c>
@@ -15827,7 +12542,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A386">
         <v>4</v>
       </c>
@@ -15856,7 +12571,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A387">
         <v>4</v>
       </c>
@@ -15885,7 +12600,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A388">
         <v>6</v>
       </c>
@@ -15914,7 +12629,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A389">
         <v>6</v>
       </c>
@@ -15943,7 +12658,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A390">
         <v>4</v>
       </c>
@@ -15972,7 +12687,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A391">
         <v>6</v>
       </c>
@@ -16001,7 +12716,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A392">
         <v>4</v>
       </c>
@@ -16030,7 +12745,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A393">
         <v>4</v>
       </c>
@@ -16059,7 +12774,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A394">
         <v>4</v>
       </c>
@@ -16088,7 +12803,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A395">
         <v>4</v>
       </c>
@@ -16117,7 +12832,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A396">
         <v>4</v>
       </c>
@@ -16146,7 +12861,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A397">
         <v>4</v>
       </c>
@@ -16175,7 +12890,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A398">
         <v>4</v>
       </c>
@@ -16204,7 +12919,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A399">
         <v>4</v>
       </c>
@@ -16235,6 +12950,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>